--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam15-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam15-Itgb3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.70430066666666</v>
+        <v>48.091872</v>
       </c>
       <c r="H2">
-        <v>140.112902</v>
+        <v>144.275616</v>
       </c>
       <c r="I2">
-        <v>0.4277960227396157</v>
+        <v>0.421093842675958</v>
       </c>
       <c r="J2">
-        <v>0.4350095176968582</v>
+        <v>0.423782205092405</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N2">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O2">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P2">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q2">
-        <v>222.689561696916</v>
+        <v>322.81604957504</v>
       </c>
       <c r="R2">
-        <v>2004.206055272244</v>
+        <v>2905.34444617536</v>
       </c>
       <c r="S2">
-        <v>0.2230357066961605</v>
+        <v>0.2665729363809767</v>
       </c>
       <c r="T2">
-        <v>0.233229164551245</v>
+        <v>0.2718352599794462</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.70430066666666</v>
+        <v>48.091872</v>
       </c>
       <c r="H3">
-        <v>140.112902</v>
+        <v>144.275616</v>
       </c>
       <c r="I3">
-        <v>0.4277960227396157</v>
+        <v>0.421093842675958</v>
       </c>
       <c r="J3">
-        <v>0.4350095176968582</v>
+        <v>0.423782205092405</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O3">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P3">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q3">
-        <v>143.9824467188347</v>
+        <v>148.260123778944</v>
       </c>
       <c r="R3">
-        <v>1295.842020469512</v>
+        <v>1334.341114010496</v>
       </c>
       <c r="S3">
-        <v>0.1442062506705374</v>
+        <v>0.1224292800682857</v>
       </c>
       <c r="T3">
-        <v>0.1507969457678582</v>
+        <v>0.1248461138939304</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.70430066666666</v>
+        <v>48.091872</v>
       </c>
       <c r="H4">
-        <v>140.112902</v>
+        <v>144.275616</v>
       </c>
       <c r="I4">
-        <v>0.4277960227396157</v>
+        <v>0.421093842675958</v>
       </c>
       <c r="J4">
-        <v>0.4350095176968582</v>
+        <v>0.423782205092405</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N4">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O4">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P4">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q4">
-        <v>8.469902766401109</v>
+        <v>11.999386952096</v>
       </c>
       <c r="R4">
-        <v>76.22912489760999</v>
+        <v>107.994482568864</v>
       </c>
       <c r="S4">
-        <v>0.008483068244227445</v>
+        <v>0.009908775659706642</v>
       </c>
       <c r="T4">
-        <v>0.008870772078336562</v>
+        <v>0.01010438135281981</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.70430066666666</v>
+        <v>48.091872</v>
       </c>
       <c r="H5">
-        <v>140.112902</v>
+        <v>144.275616</v>
       </c>
       <c r="I5">
-        <v>0.4277960227396157</v>
+        <v>0.421093842675958</v>
       </c>
       <c r="J5">
-        <v>0.4350095176968582</v>
+        <v>0.423782205092405</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N5">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O5">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P5">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q5">
-        <v>35.34184487897667</v>
+        <v>20.037310147248</v>
       </c>
       <c r="R5">
-        <v>212.05106927386</v>
+        <v>120.223860883488</v>
       </c>
       <c r="S5">
-        <v>0.03539677966251889</v>
+        <v>0.016546279561254</v>
       </c>
       <c r="T5">
-        <v>0.0246763518146454</v>
+        <v>0.01124860927316815</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>46.70430066666666</v>
+        <v>48.091872</v>
       </c>
       <c r="H6">
-        <v>140.112902</v>
+        <v>144.275616</v>
       </c>
       <c r="I6">
-        <v>0.4277960227396157</v>
+        <v>0.421093842675958</v>
       </c>
       <c r="J6">
-        <v>0.4350095176968582</v>
+        <v>0.423782205092405</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N6">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O6">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P6">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q6">
-        <v>16.64833956044178</v>
+        <v>6.825807637952001</v>
       </c>
       <c r="R6">
-        <v>149.835056043976</v>
+        <v>61.43226874156801</v>
       </c>
       <c r="S6">
-        <v>0.01667421746617143</v>
+        <v>0.00563657100573494</v>
       </c>
       <c r="T6">
-        <v>0.01743628348477301</v>
+        <v>0.005747840593040445</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>42.154816</v>
       </c>
       <c r="I7">
-        <v>0.1287080801746603</v>
+        <v>0.1230362686979479</v>
       </c>
       <c r="J7">
-        <v>0.1308783553477452</v>
+        <v>0.1238217612582891</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N7">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O7">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P7">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q7">
-        <v>66.999094048128</v>
+        <v>94.32121344526222</v>
       </c>
       <c r="R7">
-        <v>602.991846433152</v>
+        <v>848.8909210073598</v>
       </c>
       <c r="S7">
-        <v>0.06710323634012387</v>
+        <v>0.07788795775247133</v>
       </c>
       <c r="T7">
-        <v>0.0701700726853224</v>
+        <v>0.07942551682985512</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>42.154816</v>
       </c>
       <c r="I8">
-        <v>0.1287080801746603</v>
+        <v>0.1230362686979479</v>
       </c>
       <c r="J8">
-        <v>0.1308783553477452</v>
+        <v>0.1238217612582891</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O8">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P8">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q8">
         <v>43.31901960507734</v>
@@ -948,10 +948,10 @@
         <v>389.871176445696</v>
       </c>
       <c r="S8">
-        <v>0.0433863539780682</v>
+        <v>0.03577169806913908</v>
       </c>
       <c r="T8">
-        <v>0.04536925159259095</v>
+        <v>0.03647785471602961</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>42.154816</v>
       </c>
       <c r="I9">
-        <v>0.1287080801746603</v>
+        <v>0.1230362686979479</v>
       </c>
       <c r="J9">
-        <v>0.1308783553477452</v>
+        <v>0.1238217612582891</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N9">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O9">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P9">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q9">
-        <v>2.548282046542222</v>
+        <v>3.506011362851555</v>
       </c>
       <c r="R9">
-        <v>22.93453841888</v>
+        <v>31.554102265664</v>
       </c>
       <c r="S9">
-        <v>0.002552243054325226</v>
+        <v>0.002895171244461795</v>
       </c>
       <c r="T9">
-        <v>0.002668888870349822</v>
+        <v>0.002952323812791416</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>42.154816</v>
       </c>
       <c r="I10">
-        <v>0.1287080801746603</v>
+        <v>0.1230362686979479</v>
       </c>
       <c r="J10">
-        <v>0.1308783553477452</v>
+        <v>0.1238217612582891</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N10">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O10">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P10">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q10">
-        <v>10.63306052981333</v>
+        <v>5.854552181514667</v>
       </c>
       <c r="R10">
-        <v>63.79836317888</v>
+        <v>35.127313089088</v>
       </c>
       <c r="S10">
-        <v>0.0106495883845588</v>
+        <v>0.004834533996300684</v>
       </c>
       <c r="T10">
-        <v>0.00742420616124019</v>
+        <v>0.003286647233350208</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>42.154816</v>
       </c>
       <c r="I11">
-        <v>0.1287080801746603</v>
+        <v>0.1230362686979479</v>
       </c>
       <c r="J11">
-        <v>0.1308783553477452</v>
+        <v>0.1238217612582891</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N11">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O11">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P11">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q11">
-        <v>5.008872708067555</v>
+        <v>1.994381815907556</v>
       </c>
       <c r="R11">
-        <v>45.079854372608</v>
+        <v>17.949436343168</v>
       </c>
       <c r="S11">
-        <v>0.00501665841758415</v>
+        <v>0.001646907635575033</v>
       </c>
       <c r="T11">
-        <v>0.005245936038241824</v>
+        <v>0.001679418666262709</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.248849</v>
+        <v>21.412221</v>
       </c>
       <c r="H12">
-        <v>45.74654700000001</v>
+        <v>64.23666299999999</v>
       </c>
       <c r="I12">
-        <v>0.1396744381232708</v>
+        <v>0.1874860355013181</v>
       </c>
       <c r="J12">
-        <v>0.1420296279836289</v>
+        <v>0.1886829905749125</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N12">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O12">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P12">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q12">
-        <v>72.70764044682602</v>
+        <v>143.72924796622</v>
       </c>
       <c r="R12">
-        <v>654.3687640214341</v>
+        <v>1293.56323169598</v>
       </c>
       <c r="S12">
-        <v>0.07282065600963801</v>
+        <v>0.1186878029287031</v>
       </c>
       <c r="T12">
-        <v>0.0761487970459299</v>
+        <v>0.1210307775557657</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.248849</v>
+        <v>21.412221</v>
       </c>
       <c r="H13">
-        <v>45.74654700000001</v>
+        <v>64.23666299999999</v>
       </c>
       <c r="I13">
-        <v>0.1396744381232708</v>
+        <v>0.1874860355013181</v>
       </c>
       <c r="J13">
-        <v>0.1420296279836289</v>
+        <v>0.1886829905749125</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O13">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P13">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q13">
-        <v>47.00994463734801</v>
+        <v>66.010708334292</v>
       </c>
       <c r="R13">
-        <v>423.0895017361321</v>
+        <v>594.096375008628</v>
       </c>
       <c r="S13">
-        <v>0.04708301612362237</v>
+        <v>0.05450989309987826</v>
       </c>
       <c r="T13">
-        <v>0.04923486323212246</v>
+        <v>0.05558595393599998</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.248849</v>
+        <v>21.412221</v>
       </c>
       <c r="H14">
-        <v>45.74654700000001</v>
+        <v>64.23666299999999</v>
       </c>
       <c r="I14">
-        <v>0.1396744381232708</v>
+        <v>0.1874860355013181</v>
       </c>
       <c r="J14">
-        <v>0.1420296279836289</v>
+        <v>0.1886829905749125</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N14">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O14">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P14">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q14">
-        <v>2.765404180898333</v>
+        <v>5.342556124302999</v>
       </c>
       <c r="R14">
-        <v>24.888637628085</v>
+        <v>48.08300511872699</v>
       </c>
       <c r="S14">
-        <v>0.002769702679762912</v>
+        <v>0.004411741224485073</v>
       </c>
       <c r="T14">
-        <v>0.002896287108576991</v>
+        <v>0.004498831873187568</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.248849</v>
+        <v>21.412221</v>
       </c>
       <c r="H15">
-        <v>45.74654700000001</v>
+        <v>64.23666299999999</v>
       </c>
       <c r="I15">
-        <v>0.1396744381232708</v>
+        <v>0.1874860355013181</v>
       </c>
       <c r="J15">
-        <v>0.1420296279836289</v>
+        <v>0.1886829905749125</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N15">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O15">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P15">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q15">
-        <v>11.539032771035</v>
+        <v>8.9213269368765</v>
       </c>
       <c r="R15">
-        <v>69.23419662621001</v>
+        <v>53.527961621259</v>
       </c>
       <c r="S15">
-        <v>0.01155696885416066</v>
+        <v>0.007366995293785893</v>
       </c>
       <c r="T15">
-        <v>0.008056773301842049</v>
+        <v>0.005008283056640543</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.248849</v>
+        <v>21.412221</v>
       </c>
       <c r="H16">
-        <v>45.74654700000001</v>
+        <v>64.23666299999999</v>
       </c>
       <c r="I16">
-        <v>0.1396744381232708</v>
+        <v>0.1874860355013181</v>
       </c>
       <c r="J16">
-        <v>0.1420296279836289</v>
+        <v>0.1886829905749125</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N16">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O16">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P16">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q16">
-        <v>5.435645378137334</v>
+        <v>3.039093625786</v>
       </c>
       <c r="R16">
-        <v>48.92080840323601</v>
+        <v>27.351842632074</v>
       </c>
       <c r="S16">
-        <v>0.005444094456086796</v>
+        <v>0.002509602954465753</v>
       </c>
       <c r="T16">
-        <v>0.005692907295157533</v>
+        <v>0.002559144153318736</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.431107</v>
+        <v>2.1734975</v>
       </c>
       <c r="H17">
-        <v>10.862214</v>
+        <v>4.346995</v>
       </c>
       <c r="I17">
-        <v>0.04974715262852709</v>
+        <v>0.01903120789977957</v>
       </c>
       <c r="J17">
-        <v>0.03372399262175057</v>
+        <v>0.012768471746644</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N17">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O17">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P17">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q17">
-        <v>25.895920077918</v>
+        <v>14.58957298878333</v>
       </c>
       <c r="R17">
-        <v>155.375520467508</v>
+        <v>87.53743793269999</v>
       </c>
       <c r="S17">
-        <v>0.02593617227100465</v>
+        <v>0.01204768262694602</v>
       </c>
       <c r="T17">
-        <v>0.01808102651672176</v>
+        <v>0.008190341158927038</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.431107</v>
+        <v>2.1734975</v>
       </c>
       <c r="H18">
-        <v>10.862214</v>
+        <v>4.346995</v>
       </c>
       <c r="I18">
-        <v>0.04974715262852709</v>
+        <v>0.01903120789977957</v>
       </c>
       <c r="J18">
-        <v>0.03372399262175057</v>
+        <v>0.012768471746644</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O18">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P18">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q18">
-        <v>16.743299077164</v>
+        <v>6.700571114870001</v>
       </c>
       <c r="R18">
-        <v>100.459794462984</v>
+        <v>40.20342668922</v>
       </c>
       <c r="S18">
-        <v>0.01676932458640769</v>
+        <v>0.005533154004801867</v>
       </c>
       <c r="T18">
-        <v>0.01169049154000729</v>
+        <v>0.003761588048713276</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.431107</v>
+        <v>2.1734975</v>
       </c>
       <c r="H19">
-        <v>10.862214</v>
+        <v>4.346995</v>
       </c>
       <c r="I19">
-        <v>0.04974715262852709</v>
+        <v>0.01903120789977957</v>
       </c>
       <c r="J19">
-        <v>0.03372399262175057</v>
+        <v>0.012768471746644</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N19">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O19">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P19">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q19">
-        <v>0.984940306295</v>
+        <v>0.5423086367258333</v>
       </c>
       <c r="R19">
-        <v>5.90964183777</v>
+        <v>3.253851820355</v>
       </c>
       <c r="S19">
-        <v>0.0009864712813392742</v>
+        <v>0.0004478240964384426</v>
       </c>
       <c r="T19">
-        <v>0.0006877041534698674</v>
+        <v>0.0003044429574211692</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.431107</v>
+        <v>2.1734975</v>
       </c>
       <c r="H20">
-        <v>10.862214</v>
+        <v>4.346995</v>
       </c>
       <c r="I20">
-        <v>0.04974715262852709</v>
+        <v>0.01903120789977957</v>
       </c>
       <c r="J20">
-        <v>0.03372399262175057</v>
+        <v>0.012768471746644</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N20">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O20">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P20">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q20">
-        <v>4.109800133505</v>
+        <v>0.9055801261337501</v>
       </c>
       <c r="R20">
-        <v>16.43920053402</v>
+        <v>3.622320504535</v>
       </c>
       <c r="S20">
-        <v>0.004116188339370003</v>
+        <v>0.0007478040626217805</v>
       </c>
       <c r="T20">
-        <v>0.001913027353826179</v>
+        <v>0.0003389183122074875</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.431107</v>
+        <v>2.1734975</v>
       </c>
       <c r="H21">
-        <v>10.862214</v>
+        <v>4.346995</v>
       </c>
       <c r="I21">
-        <v>0.04974715262852709</v>
+        <v>0.01903120789977957</v>
       </c>
       <c r="J21">
-        <v>0.03372399262175057</v>
+        <v>0.012768471746644</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N21">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O21">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P21">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q21">
-        <v>1.935986884172</v>
+        <v>0.3084902961683333</v>
       </c>
       <c r="R21">
-        <v>11.615921305032</v>
+        <v>1.85094177701</v>
       </c>
       <c r="S21">
-        <v>0.001938996150405463</v>
+        <v>0.0002547431089714573</v>
       </c>
       <c r="T21">
-        <v>0.001351743057725477</v>
+        <v>0.0001731812693750262</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>27.73836633333333</v>
+        <v>28.477822</v>
       </c>
       <c r="H22">
-        <v>83.215099</v>
+        <v>85.433466</v>
       </c>
       <c r="I22">
-        <v>0.2540743063339261</v>
+        <v>0.2493526452249964</v>
       </c>
       <c r="J22">
-        <v>0.258358506350017</v>
+        <v>0.2509445713277496</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N22">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O22">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P22">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q22">
-        <v>132.258583316442</v>
+        <v>191.1570004707066</v>
       </c>
       <c r="R22">
-        <v>1190.327249847978</v>
+        <v>1720.41300423636</v>
       </c>
       <c r="S22">
-        <v>0.1324641638873197</v>
+        <v>0.1578523837099703</v>
       </c>
       <c r="T22">
-        <v>0.1385182073940567</v>
+        <v>0.1609684927011864</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>27.73836633333333</v>
+        <v>28.477822</v>
       </c>
       <c r="H23">
-        <v>83.215099</v>
+        <v>85.433466</v>
       </c>
       <c r="I23">
-        <v>0.2540743063339261</v>
+        <v>0.2493526452249964</v>
       </c>
       <c r="J23">
-        <v>0.258358506350017</v>
+        <v>0.2509445713277496</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O23">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P23">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q23">
-        <v>85.51327812744934</v>
+        <v>87.79291050834401</v>
       </c>
       <c r="R23">
-        <v>769.619503147044</v>
+        <v>790.1361945750961</v>
       </c>
       <c r="S23">
-        <v>0.08564619856326711</v>
+        <v>0.07249705824245703</v>
       </c>
       <c r="T23">
-        <v>0.08956050864587725</v>
+        <v>0.07392819744806516</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>27.73836633333333</v>
+        <v>28.477822</v>
       </c>
       <c r="H24">
-        <v>83.215099</v>
+        <v>85.433466</v>
       </c>
       <c r="I24">
-        <v>0.2540743063339261</v>
+        <v>0.2493526452249964</v>
       </c>
       <c r="J24">
-        <v>0.258358506350017</v>
+        <v>0.2509445713277496</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N24">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O24">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P24">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q24">
-        <v>5.030398965160555</v>
+        <v>7.105491874612667</v>
       </c>
       <c r="R24">
-        <v>45.27359068644499</v>
+        <v>63.949426871514</v>
       </c>
       <c r="S24">
-        <v>0.00503821813473782</v>
+        <v>0.005867526834369399</v>
       </c>
       <c r="T24">
-        <v>0.005268481104653823</v>
+        <v>0.00598335564034026</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>27.73836633333333</v>
+        <v>28.477822</v>
       </c>
       <c r="H25">
-        <v>83.215099</v>
+        <v>85.433466</v>
       </c>
       <c r="I25">
-        <v>0.2540743063339261</v>
+        <v>0.2493526452249964</v>
       </c>
       <c r="J25">
-        <v>0.258358506350017</v>
+        <v>0.2509445713277496</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N25">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O25">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P25">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q25">
-        <v>20.99003787992833</v>
+        <v>11.865184863923</v>
       </c>
       <c r="R25">
-        <v>125.94022727957</v>
+        <v>71.191109183538</v>
       </c>
       <c r="S25">
-        <v>0.02102266445025667</v>
+        <v>0.009797955132784796</v>
       </c>
       <c r="T25">
-        <v>0.01465564576782905</v>
+        <v>0.006660915437619727</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>27.73836633333333</v>
+        <v>28.477822</v>
       </c>
       <c r="H26">
-        <v>83.215099</v>
+        <v>85.433466</v>
       </c>
       <c r="I26">
-        <v>0.2540743063339261</v>
+        <v>0.2493526452249964</v>
       </c>
       <c r="J26">
-        <v>0.258358506350017</v>
+        <v>0.2509445713277496</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N26">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O26">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P26">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q26">
-        <v>9.887692032156888</v>
+        <v>4.041933217318667</v>
       </c>
       <c r="R26">
-        <v>88.989228289412</v>
+        <v>36.377398955868</v>
       </c>
       <c r="S26">
-        <v>0.009903061298344852</v>
+        <v>0.003337721305414783</v>
       </c>
       <c r="T26">
-        <v>0.01035566343760014</v>
+        <v>0.003403610100537991</v>
       </c>
     </row>
   </sheetData>
